--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R人物列表_Roles_Boss_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R人物列表_Roles_Boss_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65160586-5F3C-4BAA-9C40-51C1F5459A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0FA7EA-8978-43BB-84B7-84EA35D3FAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1170" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -998,25 +998,25 @@
     <t>Lobo Alfa</t>
   </si>
   <si>
-    <t>Canis Cinzento</t>
+    <t>Canis Cinza</t>
   </si>
   <si>
     <t>Capitão da Irmandade</t>
   </si>
   <si>
-    <t>Líder dos Píromantes</t>
-  </si>
-  <si>
-    <t>Capitão dos Píromantes</t>
-  </si>
-  <si>
-    <t>Brutamontes Píromante</t>
+    <t>Líder do Fogo Selvagem</t>
+  </si>
+  <si>
+    <t>Capitão do Fogo Selvagem</t>
+  </si>
+  <si>
+    <t>Bruto do Fogo Selvagem</t>
   </si>
   <si>
     <t>Sargento da Irmandade</t>
   </si>
   <si>
-    <t>Capitão da Guerrilha</t>
+    <t>Capitão Guerrilheiro</t>
   </si>
   <si>
     <t>Supremo Radiante</t>
@@ -1034,7 +1034,7 @@
     <t>Sultão das Chamas</t>
   </si>
   <si>
-    <t>Grande Mago das Sombras</t>
+    <t>Grande Mago da Sombra</t>
   </si>
   <si>
     <t>Guerreiro do Sol</t>
@@ -1049,7 +1049,7 @@
     <t>General Cavaleiro</t>
   </si>
   <si>
-    <t>Raio Trovejante</t>
+    <t>Raio</t>
   </si>
   <si>
     <t>Donzela Lagarto</t>
@@ -1058,16 +1058,16 @@
     <t>Princesa do Gelo</t>
   </si>
   <si>
-    <t>Caçadora do Vento</t>
+    <t>Perseguidor do Vento</t>
   </si>
   <si>
     <t>Mestre Caçador de Recompensas</t>
   </si>
   <si>
-    <t>Mestre do Vácuo Ifrit</t>
-  </si>
-  <si>
-    <t>Ifrit Gigante</t>
+    <t>Mestre do Vazio Ifrit</t>
+  </si>
+  <si>
+    <t>Gigante Ifrit</t>
   </si>
   <si>
     <t>Monstro Shia</t>
@@ -1082,16 +1082,16 @@
     <t>Totem Canis: Ultra</t>
   </si>
   <si>
-    <t>Totem Aranha: Ultra</t>
-  </si>
-  <si>
-    <t>Totem Grande Águia: Ultra</t>
-  </si>
-  <si>
-    <t>Totem Dragão: Ultra</t>
-  </si>
-  <si>
-    <t>Lagarto Monstruoso</t>
+    <t>Totem da Grande Águia: Ultra</t>
+  </si>
+  <si>
+    <t>Totem do Dragão: Ultra</t>
+  </si>
+  <si>
+    <t>Totem da Aranha: Ultra</t>
+  </si>
+  <si>
+    <t>Monstro Lagarto</t>
   </si>
   <si>
     <t>Bahar Esquelético</t>
@@ -1100,7 +1100,7 @@
     <t>Herbalista Dakn</t>
   </si>
   <si>
-    <t>Serpente Gigante da Rocha</t>
+    <t>Serpente  de Pedra Gigante</t>
   </si>
   <si>
     <t>Golem Gigante</t>
@@ -1109,6 +1109,9 @@
     <t>Bruxa do Deserto</t>
   </si>
   <si>
+    <t>Mago Ifrit</t>
+  </si>
+  <si>
     <t>Homem-Besta Misterioso</t>
   </si>
   <si>
@@ -1136,13 +1139,13 @@
     <t>Homem Forte Careca</t>
   </si>
   <si>
-    <t>Ifrit Baixo</t>
-  </si>
-  <si>
-    <t>Ifrit Alto</t>
-  </si>
-  <si>
-    <t>Líder dos Soldados Rasos</t>
+    <t>Grande Ifrit</t>
+  </si>
+  <si>
+    <t>Pequeno Ifrit</t>
+  </si>
+  <si>
+    <t>Líder dos Grunts</t>
   </si>
   <si>
     <t>Chama Obsidiana</t>
@@ -1151,7 +1154,7 @@
     <t>Aranha Gigante</t>
   </si>
   <si>
-    <t>Viúva-Negra Rochosa</t>
+    <t>Viúva-Negra de Rocha Negra</t>
   </si>
   <si>
     <t>Deusa do Rio</t>
@@ -1160,28 +1163,25 @@
     <t>Espectro da Deusa</t>
   </si>
   <si>
-    <t>Guarda Dakn</t>
-  </si>
-  <si>
-    <t>Guarda Akhal</t>
-  </si>
-  <si>
-    <t>Guarda Nasir</t>
-  </si>
-  <si>
-    <t>Guarda Thur</t>
-  </si>
-  <si>
-    <t>Guarda Dhib</t>
-  </si>
-  <si>
-    <t>Guarda Ifrit</t>
-  </si>
-  <si>
-    <t>Sumo Sacerdote Pagão</t>
-  </si>
-  <si>
-    <t>Mago Ifrit</t>
+    <t>Guarda dos Dakn</t>
+  </si>
+  <si>
+    <t>Guarda dos Akhal</t>
+  </si>
+  <si>
+    <t>Guarda dos Thur</t>
+  </si>
+  <si>
+    <t>Guarda dos Dhib</t>
+  </si>
+  <si>
+    <t>Guarda dos Ifrit</t>
+  </si>
+  <si>
+    <t>Guarda de Nasir</t>
+  </si>
+  <si>
+    <t>Sacerdote Pagão</t>
   </si>
   <si>
     <t>Grande Mago Ifrit</t>
@@ -1199,7 +1199,7 @@
     <t>Cavaleiro Ás</t>
   </si>
   <si>
-    <t>Armas Arcanas</t>
+    <t>Braços Arcanos</t>
   </si>
   <si>
     <t>Monstro</t>
@@ -1810,14 +1810,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.375" bestFit="1" customWidth="1"/>
@@ -1989,7 +1988,7 @@
       <c r="D12" s="7"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="33.75">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
@@ -2007,7 +2006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="22.5">
+    <row r="14" spans="1:7" ht="78.75">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.5">
+    <row r="15" spans="1:7" ht="33.75">
       <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="22.5">
+    <row r="16" spans="1:7" ht="78.75">
       <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="33.75">
+    <row r="19" spans="1:7" ht="67.5">
       <c r="A19" s="8" t="s">
         <v>49</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="22.5">
+    <row r="20" spans="1:7" ht="33.75">
       <c r="A20" s="10" t="s">
         <v>53</v>
       </c>
@@ -2133,7 +2132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="22.5">
+    <row r="21" spans="1:7" ht="33.75">
       <c r="A21" s="10" t="s">
         <v>56</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="22.5">
+    <row r="22" spans="1:7" ht="67.5">
       <c r="A22" s="10" t="s">
         <v>59</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="22.5">
+    <row r="23" spans="1:7" ht="56.25">
       <c r="A23" s="10" t="s">
         <v>62</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="22.5">
+    <row r="24" spans="1:7" ht="67.5">
       <c r="A24" s="10" t="s">
         <v>65</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="33.75">
       <c r="A25" s="8" t="s">
         <v>68</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="33.75">
       <c r="A27" s="10" t="s">
         <v>74</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="22.5">
       <c r="A28" s="10" t="s">
         <v>77</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="22.5">
+    <row r="29" spans="1:7" ht="33.75">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="33.75">
       <c r="A30" s="8" t="s">
         <v>83</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="22.5">
+    <row r="31" spans="1:7" ht="33.75">
       <c r="A31" s="8" t="s">
         <v>87</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="22.5">
+    <row r="32" spans="1:7" ht="67.5">
       <c r="A32" s="8" t="s">
         <v>90</v>
       </c>
@@ -2346,7 +2345,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="22.5">
+    <row r="33" spans="1:7" ht="56.25">
       <c r="A33" s="8" t="s">
         <v>93</v>
       </c>
@@ -2411,7 +2410,7 @@
       <c r="D36" s="14"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="22.5">
+    <row r="37" spans="1:7" ht="33.75">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="22.5">
       <c r="A38" s="8" t="s">
         <v>106</v>
       </c>
@@ -2446,7 +2445,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="40.5">
       <c r="A39" s="15" t="s">
         <v>110</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="40.5">
+    <row r="40" spans="1:7" ht="54">
       <c r="A40" s="14" t="s">
         <v>113</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="27">
+    <row r="41" spans="1:7" ht="54">
       <c r="A41" s="14" t="s">
         <v>116</v>
       </c>
@@ -2513,7 +2512,7 @@
       <c r="D42" s="14"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="40.5">
       <c r="A43" s="14" t="s">
         <v>121</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>128</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D45" s="18"/>
       <c r="F45" s="19" t="s">
@@ -2575,7 +2574,7 @@
         <v>131</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D46" s="18"/>
       <c r="F46" s="19" t="s">
@@ -2593,7 +2592,7 @@
         <v>134</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D47" s="18"/>
       <c r="F47" s="19" t="s">
@@ -2603,7 +2602,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="27">
+    <row r="48" spans="1:7" ht="40.5">
       <c r="A48" s="14" t="s">
         <v>136</v>
       </c>
@@ -2621,7 +2620,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="40.5">
+    <row r="49" spans="1:7" ht="94.5">
       <c r="A49" s="14" t="s">
         <v>140</v>
       </c>
@@ -2665,7 +2664,7 @@
       <c r="D51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:7" ht="22.5">
+    <row r="52" spans="1:7" ht="45">
       <c r="A52" s="8" t="s">
         <v>147</v>
       </c>
@@ -2683,7 +2682,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="22.5">
+    <row r="53" spans="1:7" ht="45">
       <c r="A53" s="8" t="s">
         <v>150</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="22.5">
+    <row r="54" spans="1:7" ht="45">
       <c r="A54" s="8" t="s">
         <v>153</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="22.5">
+    <row r="55" spans="1:7" ht="67.5">
       <c r="A55" s="8" t="s">
         <v>155</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="22.5">
+    <row r="56" spans="1:7" ht="56.25">
       <c r="A56" s="8" t="s">
         <v>158</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="40.5">
       <c r="A57" s="20" t="s">
         <v>161</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="22.5">
+    <row r="58" spans="1:7" ht="33.75">
       <c r="A58" s="1" t="s">
         <v>165</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>166</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="D58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -2791,7 +2790,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="22.5">
+    <row r="59" spans="1:7" ht="33.75">
       <c r="A59" s="1" t="s">
         <v>168</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>169</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D59" s="2"/>
       <c r="F59" s="2" t="s">
@@ -2809,7 +2808,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="22.5">
+    <row r="60" spans="1:7" ht="33.75">
       <c r="A60" s="1" t="s">
         <v>170</v>
       </c>
@@ -2817,7 +2816,7 @@
         <v>171</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D60" s="2"/>
       <c r="F60" s="2" t="s">
@@ -2827,7 +2826,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="22.5">
+    <row r="61" spans="1:7" ht="33.75">
       <c r="A61" s="8" t="s">
         <v>172</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>173</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D61" s="9"/>
       <c r="F61" s="9" t="s">
@@ -2845,7 +2844,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" ht="33.75">
       <c r="A62" s="8" t="s">
         <v>175</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>176</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D62" s="9"/>
       <c r="F62" s="9" t="s">
@@ -2871,7 +2870,7 @@
         <v>178</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D63" s="24"/>
       <c r="F63" s="23"/>
@@ -2884,12 +2883,12 @@
         <v>180</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D64" s="24"/>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="1:7" ht="22.5">
+    <row r="65" spans="1:7" ht="67.5">
       <c r="A65" s="8" t="s">
         <v>181</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>182</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D65" s="9"/>
       <c r="F65" s="9" t="s">
@@ -2907,7 +2906,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="22.5">
+    <row r="66" spans="1:7" ht="33.75">
       <c r="A66" s="8" t="s">
         <v>184</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>185</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D66" s="9"/>
       <c r="F66" s="9" t="s">
@@ -2925,7 +2924,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="22.5">
+    <row r="67" spans="1:7" ht="33.75">
       <c r="A67" s="8" t="s">
         <v>186</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>187</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D67" s="9"/>
       <c r="F67" s="9" t="s">
@@ -2943,7 +2942,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="22.5">
+    <row r="68" spans="1:7" ht="33.75">
       <c r="A68" s="8" t="s">
         <v>188</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>189</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D68" s="9"/>
       <c r="F68" s="9" t="s">
@@ -2961,7 +2960,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="22.5">
+    <row r="69" spans="1:7" ht="67.5">
       <c r="A69" s="8" t="s">
         <v>190</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="22.5">
+    <row r="70" spans="1:7" ht="67.5">
       <c r="A70" s="1" t="s">
         <v>193</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>194</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>195</v>
@@ -2996,7 +2995,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="22.5">
+    <row r="71" spans="1:7" ht="56.25">
       <c r="A71" s="8" t="s">
         <v>196</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="22.5">
+    <row r="72" spans="1:7" ht="56.25">
       <c r="A72" s="8" t="s">
         <v>200</v>
       </c>
@@ -3022,7 +3021,7 @@
         <v>201</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D72" s="9"/>
       <c r="F72" s="9" t="s">
@@ -3071,7 +3070,7 @@
       <c r="D75" s="21"/>
       <c r="F75" s="21"/>
     </row>
-    <row r="76" spans="1:7" ht="22.5">
+    <row r="76" spans="1:7" ht="56.25">
       <c r="A76" s="8" t="s">
         <v>210</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" ht="33.75">
       <c r="A77" s="1" t="s">
         <v>211</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>212</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>213</v>
@@ -3106,7 +3105,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="22.5">
+    <row r="78" spans="1:7" ht="56.25">
       <c r="A78" s="8" t="s">
         <v>214</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="22.5">
+    <row r="79" spans="1:7" ht="33.75">
       <c r="A79" s="1" t="s">
         <v>215</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>216</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -3142,7 +3141,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="27">
+    <row r="80" spans="1:7" ht="54">
       <c r="A80" s="20" t="s">
         <v>217</v>
       </c>
@@ -3150,7 +3149,7 @@
         <v>218</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D80" s="21"/>
       <c r="F80" s="21" t="s">
@@ -3168,7 +3167,7 @@
         <v>221</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D81" s="21"/>
       <c r="F81" s="21" t="s">
@@ -3186,7 +3185,7 @@
         <v>224</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -3198,7 +3197,7 @@
         <v>224</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -3210,7 +3209,7 @@
         <v>224</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3222,7 +3221,7 @@
         <v>224</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F85" s="2"/>
     </row>
@@ -3234,7 +3233,7 @@
         <v>224</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F86" s="2"/>
     </row>
@@ -3246,7 +3245,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F87" s="2"/>
     </row>
@@ -3258,7 +3257,7 @@
         <v>230</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F88" s="2"/>
     </row>
@@ -3270,7 +3269,7 @@
         <v>230</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F89" s="2"/>
     </row>
@@ -3282,7 +3281,7 @@
         <v>230</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -3294,7 +3293,7 @@
         <v>230</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F91" s="2"/>
     </row>
@@ -3306,7 +3305,7 @@
         <v>236</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F92" s="2"/>
     </row>
@@ -3318,7 +3317,7 @@
         <v>236</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F93" s="2"/>
     </row>
@@ -3330,7 +3329,7 @@
         <v>236</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F94" s="2"/>
     </row>
@@ -3342,7 +3341,7 @@
         <v>236</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F95" s="2"/>
     </row>
@@ -3354,7 +3353,7 @@
         <v>236</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -3392,7 +3391,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="33.75">
+    <row r="99" spans="1:7" ht="22.5">
       <c r="A99" s="1" t="s">
         <v>245</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="33.75">
+    <row r="100" spans="1:7" ht="22.5">
       <c r="A100" s="1" t="s">
         <v>246</v>
       </c>
@@ -3571,7 +3570,7 @@
         <v>261</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D112" s="9"/>
       <c r="F112" s="9" t="s">
@@ -3581,7 +3580,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="22.5">
+    <row r="113" spans="1:7" ht="33.75">
       <c r="A113" s="8" t="s">
         <v>263</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="33.75">
       <c r="A120" s="1" t="s">
         <v>286</v>
       </c>
@@ -3921,7 +3920,7 @@
       <c r="D135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:7" ht="27">
+    <row r="136" spans="1:7" ht="40.5">
       <c r="A136" s="15" t="s">
         <v>312</v>
       </c>
@@ -3953,5 +3952,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>